--- a/AE Zaid/Bagerhat/2022-23/Protective Work Design/Design Volume From Field/Design_volume_revised_17_11_2022.xlsx
+++ b/AE Zaid/Bagerhat/2022-23/Protective Work Design/Design Volume From Field/Design_volume_revised_17_11_2022.xlsx
@@ -4,20 +4,22 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
     <sheet name="DPP_Estimate_Dumping" sheetId="2" r:id="rId2"/>
     <sheet name="DPP_Estimate_Placings" sheetId="12" r:id="rId3"/>
-    <sheet name="dumping_volume_provided" sheetId="3" r:id="rId4"/>
-    <sheet name="Rehab_Estimate" sheetId="4" r:id="rId5"/>
-    <sheet name="New_Estimate" sheetId="7" r:id="rId6"/>
-    <sheet name="Endtermination" sheetId="8" r:id="rId7"/>
-    <sheet name="New_PW_Vol_Back_Calc" sheetId="11" r:id="rId8"/>
-    <sheet name="Block_cost_comparision" sheetId="9" r:id="rId9"/>
-    <sheet name="Back_calcualtion_protective_wor" sheetId="5" r:id="rId10"/>
-    <sheet name="Unit_Cost_Calcualtion" sheetId="10" r:id="rId11"/>
+    <sheet name="Quantity" sheetId="14" r:id="rId4"/>
+    <sheet name="Quantity_provided" sheetId="15" r:id="rId5"/>
+    <sheet name="dumping_volume_provided" sheetId="3" r:id="rId6"/>
+    <sheet name="Rehab_Estimate" sheetId="4" r:id="rId7"/>
+    <sheet name="New_Estimate" sheetId="7" r:id="rId8"/>
+    <sheet name="Endtermination" sheetId="8" r:id="rId9"/>
+    <sheet name="New_PW_Vol_Back_Calc" sheetId="11" r:id="rId10"/>
+    <sheet name="Block_cost_comparision" sheetId="9" r:id="rId11"/>
+    <sheet name="Back_calcualtion_protective_wor" sheetId="5" r:id="rId12"/>
+    <sheet name="Unit_Cost_Calcualtion" sheetId="10" r:id="rId13"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -29,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="188">
   <si>
     <t>Name</t>
   </si>
@@ -581,6 +583,18 @@
   </si>
   <si>
     <t>khal_fulhata</t>
+  </si>
+  <si>
+    <t>Sannashi to Gabtola</t>
+  </si>
+  <si>
+    <t>Khal Sannasi to Gabtola</t>
+  </si>
+  <si>
+    <t>Morelgonj Ferrighat</t>
+  </si>
+  <si>
+    <t>Ghasiakhali</t>
   </si>
 </sst>
 </file>
@@ -728,7 +742,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -841,7 +855,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1139,6 +1162,455 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:F20"/>
+  <sheetViews>
+    <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="22.21875" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" customWidth="1"/>
+    <col min="5" max="5" width="18.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:5">
+      <c r="A3" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="B3" s="2">
+        <v>55955.24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="B4" s="2">
+        <v>4473.38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="B5" s="40">
+        <v>41274.303350000002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="B6" s="2">
+        <f>B3-B4-B5</f>
+        <v>10207.556649999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="B7" s="2">
+        <f>B6*0.7436</f>
+        <v>7590.3391249399992</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="B8" s="2">
+        <f>B6*0.1516</f>
+        <v>1547.4655881399999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="29" t="s">
+        <v>79</v>
+      </c>
+      <c r="B9" s="5">
+        <f>B6*0.0738</f>
+        <v>753.31768076999992</v>
+      </c>
+      <c r="C9">
+        <f>SUM(B7:B9)</f>
+        <v>9891.1223938499988</v>
+      </c>
+      <c r="D9">
+        <f>B6-C9</f>
+        <v>316.43425614999978</v>
+      </c>
+      <c r="E9">
+        <f>D9/B6</f>
+        <v>3.0999999999999982E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="43"/>
+      <c r="B10" s="34"/>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="B12" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="D12" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
+        <v>165</v>
+      </c>
+      <c r="B13" s="2">
+        <v>1547.4655881399999</v>
+      </c>
+      <c r="C13" s="2">
+        <v>3.8019999999999998E-2</v>
+      </c>
+      <c r="D13">
+        <f>B13/C13</f>
+        <v>40701.356868490271</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" t="s">
+        <v>113</v>
+      </c>
+      <c r="B14" s="2">
+        <v>7590.3391249399992</v>
+      </c>
+      <c r="C14" s="1">
+        <v>0.18290000000000001</v>
+      </c>
+      <c r="D14">
+        <f>B14/C14</f>
+        <v>41499.940540951335</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" t="s">
+        <v>79</v>
+      </c>
+      <c r="B15" s="2">
+        <v>753.31768076999992</v>
+      </c>
+      <c r="C15" s="2">
+        <v>4.437E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="D16" s="42"/>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" t="s">
+        <v>169</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C18" s="4">
+        <v>7800</v>
+      </c>
+      <c r="D18" s="2">
+        <v>2500</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="F18" s="36" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" t="s">
+        <v>165</v>
+      </c>
+      <c r="B19" s="2">
+        <v>20438</v>
+      </c>
+      <c r="C19" s="5">
+        <v>222100</v>
+      </c>
+      <c r="D19" s="2">
+        <v>40701</v>
+      </c>
+      <c r="E19" s="2">
+        <v>1460</v>
+      </c>
+      <c r="F19">
+        <f>SUM(B19:E19)</f>
+        <v>284699</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" t="s">
+        <v>113</v>
+      </c>
+      <c r="B20" s="2">
+        <v>19920</v>
+      </c>
+      <c r="C20" s="5">
+        <v>171800</v>
+      </c>
+      <c r="D20" s="2">
+        <v>41500</v>
+      </c>
+      <c r="E20" s="2">
+        <v>2167</v>
+      </c>
+      <c r="F20">
+        <f>SUM(B20:E20)</f>
+        <v>235387</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C6:Q31"/>
+  <sheetViews>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="3" max="3" width="20.33203125" customWidth="1"/>
+    <col min="6" max="6" width="31.77734375" customWidth="1"/>
+    <col min="7" max="7" width="35.77734375" customWidth="1"/>
+    <col min="8" max="8" width="12" customWidth="1"/>
+    <col min="9" max="9" width="13.109375" customWidth="1"/>
+    <col min="10" max="10" width="15.21875" customWidth="1"/>
+    <col min="11" max="11" width="12.33203125" customWidth="1"/>
+    <col min="12" max="12" width="13.21875" customWidth="1"/>
+    <col min="13" max="13" width="16.33203125" customWidth="1"/>
+    <col min="14" max="14" width="10.6640625" customWidth="1"/>
+    <col min="17" max="17" width="19.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="6" spans="6:17">
+      <c r="F6" s="5"/>
+      <c r="G6" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="L6" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="M6" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="N6" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="O6" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q6" s="7" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="7" spans="6:17">
+      <c r="F7" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="G7" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="H7" s="2">
+        <v>1442.18</v>
+      </c>
+      <c r="I7" s="2">
+        <v>1473.01</v>
+      </c>
+      <c r="J7" s="2">
+        <v>1439.56</v>
+      </c>
+      <c r="K7" s="4">
+        <v>1401.84</v>
+      </c>
+      <c r="L7" s="4">
+        <v>1366.89</v>
+      </c>
+      <c r="M7" s="5"/>
+      <c r="N7" s="2">
+        <f>(45/100)^3</f>
+        <v>9.1125000000000012E-2</v>
+      </c>
+      <c r="O7" s="2">
+        <f>I7/N7</f>
+        <v>16164.718792866939</v>
+      </c>
+      <c r="P7">
+        <f>H7/N7</f>
+        <v>15826.392318244169</v>
+      </c>
+      <c r="Q7" s="1">
+        <f>L7/N7</f>
+        <v>15000.164609053498</v>
+      </c>
+    </row>
+    <row r="8" spans="6:17">
+      <c r="F8" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="G8" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="H8" s="2">
+        <v>650.79</v>
+      </c>
+      <c r="I8" s="2">
+        <v>691.87</v>
+      </c>
+      <c r="J8" s="2">
+        <v>676.16</v>
+      </c>
+      <c r="K8" s="4">
+        <v>658.44</v>
+      </c>
+      <c r="L8" s="4">
+        <v>642.03</v>
+      </c>
+      <c r="M8" s="5"/>
+      <c r="N8" s="2">
+        <f>(35/100)^3</f>
+        <v>4.287499999999999E-2</v>
+      </c>
+      <c r="O8" s="2">
+        <f t="shared" ref="O8:O10" si="0">I8/N8</f>
+        <v>16136.909620991257</v>
+      </c>
+      <c r="Q8" s="1">
+        <f>L8/N8</f>
+        <v>14974.460641399421</v>
+      </c>
+    </row>
+    <row r="9" spans="6:17">
+      <c r="F9" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="G9" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="H9" s="2">
+        <v>499.32</v>
+      </c>
+      <c r="I9" s="2">
+        <v>515.97</v>
+      </c>
+      <c r="J9" s="2">
+        <v>504.25</v>
+      </c>
+      <c r="K9" s="4">
+        <v>491.04</v>
+      </c>
+      <c r="L9" s="4">
+        <v>478.4</v>
+      </c>
+      <c r="M9" s="5"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="10" spans="6:17">
+      <c r="F10" s="5"/>
+      <c r="G10" s="21" t="s">
+        <v>126</v>
+      </c>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="2">
+        <v>759.98</v>
+      </c>
+      <c r="N10" s="2">
+        <f>((50/100)^2)*(38/100)</f>
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="O10" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q10" s="1">
+        <f>M10/N10</f>
+        <v>7999.7894736842109</v>
+      </c>
+    </row>
+    <row r="12" spans="6:17">
+      <c r="K12">
+        <f>I7/N7</f>
+        <v>16164.718792866939</v>
+      </c>
+    </row>
+    <row r="14" spans="6:17" s="34" customFormat="1">
+      <c r="G14" s="34" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="15" spans="6:17" s="34" customFormat="1"/>
+    <row r="16" spans="6:17" s="34" customFormat="1"/>
+    <row r="17" spans="3:6" s="34" customFormat="1"/>
+    <row r="18" spans="3:6" s="34" customFormat="1"/>
+    <row r="19" spans="3:6" s="34" customFormat="1"/>
+    <row r="20" spans="3:6" s="34" customFormat="1"/>
+    <row r="21" spans="3:6" s="34" customFormat="1"/>
+    <row r="22" spans="3:6" s="34" customFormat="1"/>
+    <row r="23" spans="3:6" s="34" customFormat="1"/>
+    <row r="24" spans="3:6" s="34" customFormat="1"/>
+    <row r="25" spans="3:6" s="34" customFormat="1">
+      <c r="C25" s="35"/>
+    </row>
+    <row r="26" spans="3:6" s="34" customFormat="1">
+      <c r="C26" s="35"/>
+      <c r="D26" s="35"/>
+      <c r="E26" s="35"/>
+      <c r="F26" s="35"/>
+    </row>
+    <row r="27" spans="3:6" s="34" customFormat="1"/>
+    <row r="28" spans="3:6" s="34" customFormat="1"/>
+    <row r="29" spans="3:6" s="34" customFormat="1"/>
+    <row r="30" spans="3:6" s="34" customFormat="1"/>
+    <row r="31" spans="3:6" s="34" customFormat="1"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1160,12 +1632,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C6:R39"/>
   <sheetViews>
-    <sheetView topLeftCell="E17" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+    <sheetView topLeftCell="D13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1708,10 +2180,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K18"/>
+  <dimension ref="A1:K20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2:J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1806,7 +2278,7 @@
         <v>55.69</v>
       </c>
       <c r="D3" s="2">
-        <f t="shared" ref="D3:D10" si="0">C3-B3</f>
+        <f t="shared" ref="D3:D15" si="0">C3-B3</f>
         <v>55.69</v>
       </c>
       <c r="E3" s="2">
@@ -1819,7 +2291,7 @@
         <v>29</v>
       </c>
       <c r="H3" s="2">
-        <f>F3+G3</f>
+        <f t="shared" ref="H3:H15" si="1">F3+G3</f>
         <v>43</v>
       </c>
       <c r="I3" s="5">
@@ -1858,14 +2330,17 @@
       <c r="G4" s="2">
         <v>20</v>
       </c>
-      <c r="H4" s="2"/>
+      <c r="H4" s="2">
+        <f t="shared" si="1"/>
+        <v>34.5</v>
+      </c>
       <c r="I4" s="5"/>
       <c r="J4" s="2">
-        <f t="shared" ref="J4:J10" si="1">D4*F4</f>
+        <f t="shared" ref="J4:J15" si="2">D4*F4</f>
         <v>972.08</v>
       </c>
       <c r="K4" s="2">
-        <f t="shared" ref="K4:K10" si="2">G4*D4</f>
+        <f t="shared" ref="K4:K15" si="3">G4*D4</f>
         <v>1340.8000000000002</v>
       </c>
     </row>
@@ -1892,14 +2367,17 @@
       <c r="G5" s="2">
         <v>16</v>
       </c>
-      <c r="H5" s="2"/>
+      <c r="H5" s="2">
+        <f t="shared" si="1"/>
+        <v>26.25</v>
+      </c>
       <c r="I5" s="5"/>
       <c r="J5" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>256.25</v>
       </c>
       <c r="K5" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>400</v>
       </c>
     </row>
@@ -1926,14 +2404,17 @@
       <c r="G6" s="2">
         <v>20</v>
       </c>
-      <c r="H6" s="2"/>
+      <c r="H6" s="2">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
       <c r="I6" s="5"/>
       <c r="J6" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>422.59999999999997</v>
       </c>
       <c r="K6" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>845.19999999999993</v>
       </c>
     </row>
@@ -1960,14 +2441,17 @@
       <c r="G7" s="2">
         <v>15</v>
       </c>
-      <c r="H7" s="2"/>
+      <c r="H7" s="2">
+        <f t="shared" si="1"/>
+        <v>37</v>
+      </c>
       <c r="I7" s="5"/>
       <c r="J7" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>11000</v>
       </c>
       <c r="K7" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>7500</v>
       </c>
     </row>
@@ -1994,14 +2478,17 @@
       <c r="G8" s="2">
         <v>15</v>
       </c>
-      <c r="H8" s="2"/>
+      <c r="H8" s="2">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
       <c r="I8" s="5"/>
       <c r="J8" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7500</v>
       </c>
       <c r="K8" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>7500</v>
       </c>
     </row>
@@ -2028,14 +2515,17 @@
       <c r="G9" s="2">
         <v>4</v>
       </c>
-      <c r="H9" s="2"/>
+      <c r="H9" s="2">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
       <c r="I9" s="5"/>
       <c r="J9" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K9" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>240</v>
       </c>
     </row>
@@ -2062,93 +2552,235 @@
       <c r="G10" s="2">
         <v>15.5</v>
       </c>
-      <c r="H10" s="2"/>
+      <c r="H10" s="2">
+        <f t="shared" si="1"/>
+        <v>37.5</v>
+      </c>
       <c r="I10" s="5"/>
       <c r="J10" s="2">
+        <f t="shared" si="2"/>
+        <v>33000</v>
+      </c>
+      <c r="K10" s="2">
+        <f t="shared" si="3"/>
+        <v>23250</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="B11" s="4">
+        <v>0</v>
+      </c>
+      <c r="C11" s="4">
+        <v>2000</v>
+      </c>
+      <c r="D11" s="4">
+        <f t="shared" si="0"/>
+        <v>2000</v>
+      </c>
+      <c r="E11" s="2">
+        <v>36.35</v>
+      </c>
+      <c r="F11" s="2">
+        <v>29.5</v>
+      </c>
+      <c r="G11" s="2">
+        <v>22</v>
+      </c>
+      <c r="H11" s="2">
         <f t="shared" si="1"/>
-        <v>33000</v>
-      </c>
-      <c r="K10" s="2">
+        <v>51.5</v>
+      </c>
+      <c r="I11" s="5"/>
+      <c r="J11" s="2">
         <f t="shared" si="2"/>
-        <v>23250</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
-      <c r="A11" s="2"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
+        <v>59000</v>
+      </c>
+      <c r="K11" s="2">
+        <f t="shared" si="3"/>
+        <v>44000</v>
+      </c>
     </row>
     <row r="12" spans="1:11">
-      <c r="A12" s="2"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
+      <c r="A12" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="B12" s="4">
+        <v>2000</v>
+      </c>
+      <c r="C12" s="4">
+        <v>4500</v>
+      </c>
+      <c r="D12" s="4">
+        <f t="shared" si="0"/>
+        <v>2500</v>
+      </c>
+      <c r="E12" s="2">
+        <v>36.35</v>
+      </c>
+      <c r="F12" s="2">
+        <v>26.5</v>
+      </c>
+      <c r="G12" s="2">
+        <v>22</v>
+      </c>
+      <c r="H12" s="2">
+        <f t="shared" si="1"/>
+        <v>48.5</v>
+      </c>
       <c r="I12" s="5"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
+      <c r="J12" s="2">
+        <f t="shared" si="2"/>
+        <v>66250</v>
+      </c>
+      <c r="K12" s="2">
+        <f t="shared" si="3"/>
+        <v>55000</v>
+      </c>
     </row>
     <row r="13" spans="1:11">
-      <c r="A13" s="2"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
+      <c r="A13" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="B13" s="4">
+        <v>0</v>
+      </c>
+      <c r="C13" s="4">
+        <v>20</v>
+      </c>
+      <c r="D13" s="4">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="E13" s="2">
+        <v>36.35</v>
+      </c>
+      <c r="F13" s="2">
+        <v>0</v>
+      </c>
+      <c r="G13" s="2">
+        <v>4</v>
+      </c>
+      <c r="H13" s="2">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
       <c r="I13" s="5"/>
-      <c r="J13" s="2"/>
-      <c r="K13" s="2"/>
+      <c r="J13" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K13" s="2">
+        <f t="shared" si="3"/>
+        <v>80</v>
+      </c>
     </row>
     <row r="14" spans="1:11">
-      <c r="A14" s="5"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="2">
-        <f>SUM(D2:D10)</f>
-        <v>2879.39</v>
-      </c>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
+      <c r="A14" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="B14" s="4">
+        <v>0</v>
+      </c>
+      <c r="C14" s="4">
+        <v>2300</v>
+      </c>
+      <c r="D14" s="4">
+        <f t="shared" si="0"/>
+        <v>2300</v>
+      </c>
+      <c r="E14" s="2">
+        <v>36.35</v>
+      </c>
+      <c r="F14" s="2">
+        <v>29.5</v>
+      </c>
+      <c r="G14" s="2">
+        <v>22</v>
+      </c>
+      <c r="H14" s="2">
+        <f t="shared" si="1"/>
+        <v>51.5</v>
+      </c>
       <c r="I14" s="5"/>
       <c r="J14" s="2">
-        <f>SUM(J2:J10)</f>
-        <v>56518.59</v>
+        <f t="shared" si="2"/>
+        <v>67850</v>
       </c>
       <c r="K14" s="2">
-        <f>SUM(K2:K10)</f>
-        <v>46443.61</v>
+        <f t="shared" si="3"/>
+        <v>50600</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="B15" s="4">
+        <v>0</v>
+      </c>
+      <c r="C15" s="4">
+        <v>1000</v>
+      </c>
+      <c r="D15" s="4">
+        <f t="shared" si="0"/>
+        <v>1000</v>
+      </c>
+      <c r="E15" s="2">
+        <v>36.35</v>
+      </c>
+      <c r="F15" s="2">
+        <v>29.5</v>
+      </c>
+      <c r="G15" s="2">
+        <v>22</v>
+      </c>
+      <c r="H15" s="2">
+        <f t="shared" si="1"/>
+        <v>51.5</v>
+      </c>
+      <c r="I15" s="5"/>
+      <c r="J15" s="2">
+        <f t="shared" si="2"/>
+        <v>29500</v>
+      </c>
+      <c r="K15" s="2">
+        <f t="shared" si="3"/>
+        <v>22000</v>
       </c>
     </row>
     <row r="16" spans="1:11">
-      <c r="G16" s="3">
-        <v>51540</v>
-      </c>
-    </row>
-    <row r="17" spans="7:7">
-      <c r="G17" s="3">
-        <v>120560</v>
+      <c r="A16" s="5"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="2">
+        <f>SUM(D2:D15)</f>
+        <v>10699.39</v>
+      </c>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="2">
+        <f>SUM(J2:J15)</f>
+        <v>279118.58999999997</v>
+      </c>
+      <c r="K16" s="2">
+        <f>SUM(K2:K15)</f>
+        <v>218123.61</v>
       </c>
     </row>
     <row r="18" spans="7:7">
-      <c r="G18" s="1">
-        <f>SUM(G16:G17)</f>
-        <v>172100</v>
-      </c>
+      <c r="G18" s="3"/>
+    </row>
+    <row r="19" spans="7:7">
+      <c r="G19" s="3"/>
+    </row>
+    <row r="20" spans="7:7">
+      <c r="G20" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2157,10 +2789,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="F5" sqref="F5:F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2170,22 +2802,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="47" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="47" t="s">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="47" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="47" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="47" t="s">
+      <c r="E1" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="F1" s="47" t="s">
+      <c r="F1" s="2" t="s">
         <v>175</v>
       </c>
     </row>
@@ -2200,14 +2832,14 @@
         <v>83.32</v>
       </c>
       <c r="D2" s="2">
-        <f>C2-B2</f>
+        <f t="shared" ref="D2:D14" si="0">C2-B2</f>
         <v>83.32</v>
       </c>
       <c r="E2" s="2">
         <v>14.1</v>
       </c>
       <c r="F2" s="2">
-        <f>D2*E2</f>
+        <f t="shared" ref="F2:F14" si="1">D2*E2</f>
         <v>1174.8119999999999</v>
       </c>
     </row>
@@ -2222,14 +2854,14 @@
         <v>35.32</v>
       </c>
       <c r="D3" s="2">
-        <f>C3-B3</f>
+        <f t="shared" si="0"/>
         <v>35.32</v>
       </c>
       <c r="E3" s="2">
         <v>10</v>
       </c>
       <c r="F3" s="2">
-        <f>D3*E3</f>
+        <f t="shared" si="1"/>
         <v>353.2</v>
       </c>
     </row>
@@ -2244,14 +2876,14 @@
         <v>70</v>
       </c>
       <c r="D4" s="2">
-        <f>C4-B4</f>
+        <f t="shared" si="0"/>
         <v>70</v>
       </c>
       <c r="E4" s="2">
         <v>10</v>
       </c>
       <c r="F4" s="2">
-        <f>D4*E4</f>
+        <f t="shared" si="1"/>
         <v>700</v>
       </c>
     </row>
@@ -2266,32 +2898,214 @@
         <v>25.84</v>
       </c>
       <c r="D5" s="2">
-        <f>C5-B5</f>
+        <f t="shared" si="0"/>
         <v>25.84</v>
       </c>
       <c r="E5" s="2">
         <v>12.25</v>
       </c>
       <c r="F5" s="2">
-        <f>D5*E5</f>
+        <f t="shared" si="1"/>
         <v>316.54000000000002</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="2"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="2"/>
+      <c r="A6" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="B6" s="4">
+        <v>0</v>
+      </c>
+      <c r="C6" s="4">
+        <v>500</v>
+      </c>
+      <c r="D6" s="4">
+        <f t="shared" si="0"/>
+        <v>500</v>
+      </c>
+      <c r="E6" s="4">
+        <v>10</v>
+      </c>
+      <c r="F6" s="2">
+        <f t="shared" si="1"/>
+        <v>5000</v>
+      </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="5"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
+      <c r="A7" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="B7" s="2">
+        <v>500</v>
+      </c>
+      <c r="C7" s="2">
+        <v>1000</v>
+      </c>
+      <c r="D7" s="2">
+        <f t="shared" si="0"/>
+        <v>500</v>
+      </c>
+      <c r="E7" s="2">
+        <v>20.5</v>
+      </c>
+      <c r="F7" s="2">
+        <f t="shared" si="1"/>
+        <v>10250</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="B8" s="2">
+        <v>0</v>
+      </c>
+      <c r="C8" s="2">
+        <v>0</v>
+      </c>
+      <c r="D8" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E8" s="2">
+        <v>0</v>
+      </c>
+      <c r="F8" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="2">
+        <v>2600</v>
+      </c>
+      <c r="C9" s="2">
+        <v>4100</v>
+      </c>
+      <c r="D9" s="2">
+        <f t="shared" si="0"/>
+        <v>1500</v>
+      </c>
+      <c r="E9" s="2">
+        <v>12.33</v>
+      </c>
+      <c r="F9" s="2">
+        <f t="shared" si="1"/>
+        <v>18495</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="40" t="s">
+        <v>184</v>
+      </c>
+      <c r="B10" s="2">
+        <v>0</v>
+      </c>
+      <c r="C10" s="2">
+        <v>2000</v>
+      </c>
+      <c r="D10" s="2">
+        <f t="shared" si="0"/>
+        <v>2000</v>
+      </c>
+      <c r="E10" s="2">
+        <v>14.02</v>
+      </c>
+      <c r="F10" s="2">
+        <f t="shared" si="1"/>
+        <v>28040</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="40" t="s">
+        <v>184</v>
+      </c>
+      <c r="B11" s="2">
+        <v>2000</v>
+      </c>
+      <c r="C11" s="2">
+        <v>4500</v>
+      </c>
+      <c r="D11" s="2">
+        <f t="shared" si="0"/>
+        <v>2500</v>
+      </c>
+      <c r="E11" s="2">
+        <v>10</v>
+      </c>
+      <c r="F11" s="2">
+        <f t="shared" si="1"/>
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="40" t="s">
+        <v>185</v>
+      </c>
+      <c r="B12" s="2">
+        <v>0</v>
+      </c>
+      <c r="C12" s="2">
+        <v>0</v>
+      </c>
+      <c r="D12" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E12" s="2">
+        <v>0</v>
+      </c>
+      <c r="F12" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="40" t="s">
+        <v>186</v>
+      </c>
+      <c r="B13" s="2">
+        <v>0</v>
+      </c>
+      <c r="C13" s="2">
+        <v>2300</v>
+      </c>
+      <c r="D13" s="2">
+        <f t="shared" si="0"/>
+        <v>2300</v>
+      </c>
+      <c r="E13" s="2">
+        <v>11.21</v>
+      </c>
+      <c r="F13" s="2">
+        <f t="shared" si="1"/>
+        <v>25783.000000000004</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="40" t="s">
+        <v>187</v>
+      </c>
+      <c r="B14" s="2">
+        <v>0</v>
+      </c>
+      <c r="C14" s="2">
+        <v>1000</v>
+      </c>
+      <c r="D14" s="2">
+        <f t="shared" si="0"/>
+        <v>1000</v>
+      </c>
+      <c r="E14" s="2">
+        <v>12.33</v>
+      </c>
+      <c r="F14" s="2">
+        <f t="shared" si="1"/>
+        <v>12330</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2299,6 +3113,591 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F15"/>
+  <sheetViews>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="34.77734375" customWidth="1"/>
+    <col min="2" max="2" width="13.44140625" customWidth="1"/>
+    <col min="5" max="5" width="8.88671875" customWidth="1"/>
+    <col min="6" max="6" width="12.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="47" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="47" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="47" t="s">
+        <v>165</v>
+      </c>
+      <c r="D1" s="47" t="s">
+        <v>113</v>
+      </c>
+      <c r="E1" s="47" t="s">
+        <v>79</v>
+      </c>
+      <c r="F1" s="47"/>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="B2" s="48">
+        <v>129.4</v>
+      </c>
+      <c r="C2" s="48">
+        <v>2588</v>
+      </c>
+      <c r="D2" s="48">
+        <v>3752.6000000000004</v>
+      </c>
+      <c r="E2" s="48">
+        <v>1174.8119999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="B3" s="48">
+        <v>55.69</v>
+      </c>
+      <c r="C3" s="48">
+        <v>779.66</v>
+      </c>
+      <c r="D3" s="48">
+        <v>1615.01</v>
+      </c>
+      <c r="E3" s="48">
+        <v>353.2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="B4" s="48">
+        <v>67.040000000000006</v>
+      </c>
+      <c r="C4" s="48">
+        <v>972.08</v>
+      </c>
+      <c r="D4" s="48">
+        <v>1340.8000000000002</v>
+      </c>
+      <c r="E4" s="48">
+        <v>700.48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B5" s="48">
+        <v>25</v>
+      </c>
+      <c r="C5" s="48">
+        <v>256.25</v>
+      </c>
+      <c r="D5" s="48">
+        <v>400</v>
+      </c>
+      <c r="E5" s="48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="B6" s="48">
+        <v>42.26</v>
+      </c>
+      <c r="C6" s="48">
+        <v>422.59999999999997</v>
+      </c>
+      <c r="D6" s="48">
+        <v>845.19999999999993</v>
+      </c>
+      <c r="E6" s="48">
+        <v>316.54000000000002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="B7" s="48">
+        <v>500</v>
+      </c>
+      <c r="C7" s="48">
+        <v>11000</v>
+      </c>
+      <c r="D7" s="48">
+        <v>7500</v>
+      </c>
+      <c r="E7" s="48">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="B8" s="48">
+        <v>500</v>
+      </c>
+      <c r="C8" s="48">
+        <v>7500</v>
+      </c>
+      <c r="D8" s="48">
+        <v>7500</v>
+      </c>
+      <c r="E8" s="48">
+        <v>10250</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="B9" s="48">
+        <v>60</v>
+      </c>
+      <c r="C9" s="48">
+        <v>0</v>
+      </c>
+      <c r="D9" s="48">
+        <v>240</v>
+      </c>
+      <c r="E9" s="48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="48">
+        <v>1500</v>
+      </c>
+      <c r="C10" s="48">
+        <v>33000</v>
+      </c>
+      <c r="D10" s="48">
+        <v>23250</v>
+      </c>
+      <c r="E10" s="48">
+        <v>18495</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="B11" s="48">
+        <v>2000</v>
+      </c>
+      <c r="C11" s="48">
+        <v>59000</v>
+      </c>
+      <c r="D11" s="48">
+        <v>44000</v>
+      </c>
+      <c r="E11" s="48">
+        <v>28040</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="B12" s="48">
+        <v>2500</v>
+      </c>
+      <c r="C12" s="48">
+        <v>66250</v>
+      </c>
+      <c r="D12" s="48">
+        <v>55000</v>
+      </c>
+      <c r="E12" s="48">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="B13" s="48">
+        <v>20</v>
+      </c>
+      <c r="C13" s="48">
+        <v>0</v>
+      </c>
+      <c r="D13" s="48">
+        <v>80</v>
+      </c>
+      <c r="E13" s="48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="B14" s="48">
+        <v>2300</v>
+      </c>
+      <c r="C14" s="48">
+        <v>67850</v>
+      </c>
+      <c r="D14" s="48">
+        <v>50600</v>
+      </c>
+      <c r="E14" s="48">
+        <v>25783.000000000004</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="B15" s="48">
+        <v>1000</v>
+      </c>
+      <c r="C15" s="48">
+        <v>29500</v>
+      </c>
+      <c r="D15" s="48">
+        <v>22000</v>
+      </c>
+      <c r="E15" s="48">
+        <v>12330</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="34.77734375" customWidth="1"/>
+    <col min="2" max="2" width="13.44140625" customWidth="1"/>
+    <col min="5" max="5" width="8.88671875" customWidth="1"/>
+    <col min="6" max="6" width="12.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" s="49" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="49" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="49" t="s">
+        <v>165</v>
+      </c>
+      <c r="D1" s="49" t="s">
+        <v>113</v>
+      </c>
+      <c r="E1" s="49" t="s">
+        <v>79</v>
+      </c>
+      <c r="F1" s="49"/>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="B2" s="2">
+        <v>129.4</v>
+      </c>
+      <c r="C2" s="2">
+        <v>2588</v>
+      </c>
+      <c r="D2" s="2">
+        <v>3752.6000000000004</v>
+      </c>
+      <c r="E2" s="2">
+        <v>1174.8119999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="B3" s="2">
+        <v>55.69</v>
+      </c>
+      <c r="C3" s="2">
+        <v>779.66</v>
+      </c>
+      <c r="D3" s="2">
+        <v>1615.01</v>
+      </c>
+      <c r="E3" s="2">
+        <v>353.2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="B4" s="2">
+        <v>67.040000000000006</v>
+      </c>
+      <c r="C4" s="2">
+        <v>972.08</v>
+      </c>
+      <c r="D4" s="2">
+        <v>1340.8000000000002</v>
+      </c>
+      <c r="E4" s="2">
+        <v>700.48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B5" s="2">
+        <v>25</v>
+      </c>
+      <c r="C5" s="2">
+        <v>256.25</v>
+      </c>
+      <c r="D5" s="2">
+        <v>400</v>
+      </c>
+      <c r="E5" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="B6" s="2">
+        <v>42.26</v>
+      </c>
+      <c r="C6" s="2">
+        <v>422.59999999999997</v>
+      </c>
+      <c r="D6" s="2">
+        <v>845.19999999999993</v>
+      </c>
+      <c r="E6" s="2">
+        <v>316.54000000000002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="18" t="s">
+        <v>182</v>
+      </c>
+      <c r="B7" s="18">
+        <v>500</v>
+      </c>
+      <c r="C7" s="18">
+        <v>11000</v>
+      </c>
+      <c r="D7" s="18">
+        <v>7500</v>
+      </c>
+      <c r="E7" s="18">
+        <v>5000</v>
+      </c>
+      <c r="F7" s="49">
+        <f>17*B7</f>
+        <v>8500</v>
+      </c>
+      <c r="G7" s="49">
+        <f>22*500</f>
+        <v>11000</v>
+      </c>
+      <c r="H7">
+        <f>C7+D7</f>
+        <v>18500</v>
+      </c>
+      <c r="I7" s="49">
+        <f>H7/500</f>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="18" t="s">
+        <v>182</v>
+      </c>
+      <c r="B8" s="18">
+        <v>500</v>
+      </c>
+      <c r="C8" s="18">
+        <v>7500</v>
+      </c>
+      <c r="D8" s="18">
+        <v>7500</v>
+      </c>
+      <c r="E8" s="18">
+        <v>10250</v>
+      </c>
+      <c r="F8" s="49">
+        <f>F7*2</f>
+        <v>17000</v>
+      </c>
+      <c r="G8" s="51">
+        <v>22000</v>
+      </c>
+      <c r="I8" s="49">
+        <f>(C8+D8)/500</f>
+        <v>30</v>
+      </c>
+      <c r="J8">
+        <f>(I7+I8)/2</f>
+        <v>33.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="B9" s="2">
+        <v>60</v>
+      </c>
+      <c r="C9" s="2">
+        <v>0</v>
+      </c>
+      <c r="D9" s="2">
+        <v>240</v>
+      </c>
+      <c r="E9" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="2">
+        <v>1500</v>
+      </c>
+      <c r="C10" s="2">
+        <v>33000</v>
+      </c>
+      <c r="D10" s="2">
+        <v>23250</v>
+      </c>
+      <c r="E10" s="2">
+        <v>18495</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="B11" s="2">
+        <v>2000</v>
+      </c>
+      <c r="C11" s="2">
+        <v>59000</v>
+      </c>
+      <c r="D11" s="2">
+        <v>44000</v>
+      </c>
+      <c r="E11" s="2">
+        <v>28040</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="B12" s="2">
+        <v>2500</v>
+      </c>
+      <c r="C12" s="2">
+        <v>66250</v>
+      </c>
+      <c r="D12" s="2">
+        <v>55000</v>
+      </c>
+      <c r="E12" s="2">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="B13" s="2">
+        <v>20</v>
+      </c>
+      <c r="C13" s="2">
+        <v>0</v>
+      </c>
+      <c r="D13" s="2">
+        <v>80</v>
+      </c>
+      <c r="E13" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="B14" s="2">
+        <v>2300</v>
+      </c>
+      <c r="C14" s="2">
+        <v>67850</v>
+      </c>
+      <c r="D14" s="2">
+        <v>50600</v>
+      </c>
+      <c r="E14" s="2">
+        <v>25783.000000000004</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="B15" s="2">
+        <v>1000</v>
+      </c>
+      <c r="C15" s="2">
+        <v>29500</v>
+      </c>
+      <c r="D15" s="2">
+        <v>22000</v>
+      </c>
+      <c r="E15" s="2">
+        <v>12330</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S28"/>
   <sheetViews>
@@ -3785,12 +5184,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H43"/>
   <sheetViews>
     <sheetView topLeftCell="C7" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -4680,7 +6079,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H40"/>
   <sheetViews>
@@ -5545,7 +6944,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J14"/>
   <sheetViews>
@@ -5578,12 +6977,12 @@
       <c r="F1" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="G1" s="48" t="s">
+      <c r="G1" s="50" t="s">
         <v>79</v>
       </c>
-      <c r="H1" s="48"/>
-      <c r="I1" s="48"/>
-      <c r="J1" s="48"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="50"/>
+      <c r="J1" s="50"/>
     </row>
     <row r="2" spans="1:10">
       <c r="F2" s="1"/>
@@ -5757,453 +7156,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:F20"/>
-  <sheetViews>
-    <sheetView topLeftCell="C14" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
-  <cols>
-    <col min="1" max="1" width="22.21875" customWidth="1"/>
-    <col min="2" max="2" width="11.88671875" customWidth="1"/>
-    <col min="5" max="5" width="18.6640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="1:5">
-      <c r="A3" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="B3" s="2">
-        <v>55955.24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="B4" s="2">
-        <v>4473.38</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="B5" s="40">
-        <v>41274.303350000002</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="B6" s="2">
-        <f>B3-B4-B5</f>
-        <v>10207.556649999999</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="B7" s="2">
-        <f>B6*0.7436</f>
-        <v>7590.3391249399992</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="B8" s="2">
-        <f>B6*0.1516</f>
-        <v>1547.4655881399999</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="29" t="s">
-        <v>79</v>
-      </c>
-      <c r="B9" s="5">
-        <f>B6*0.0738</f>
-        <v>753.31768076999992</v>
-      </c>
-      <c r="C9">
-        <f>SUM(B7:B9)</f>
-        <v>9891.1223938499988</v>
-      </c>
-      <c r="D9">
-        <f>B6-C9</f>
-        <v>316.43425614999978</v>
-      </c>
-      <c r="E9">
-        <f>D9/B6</f>
-        <v>3.0999999999999982E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="43"/>
-      <c r="B10" s="34"/>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="B12" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="D12" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" t="s">
-        <v>165</v>
-      </c>
-      <c r="B13" s="2">
-        <v>1547.4655881399999</v>
-      </c>
-      <c r="C13" s="2">
-        <v>3.8019999999999998E-2</v>
-      </c>
-      <c r="D13">
-        <f>B13/C13</f>
-        <v>40701.356868490271</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" t="s">
-        <v>113</v>
-      </c>
-      <c r="B14" s="2">
-        <v>7590.3391249399992</v>
-      </c>
-      <c r="C14" s="1">
-        <v>0.18290000000000001</v>
-      </c>
-      <c r="D14">
-        <f>B14/C14</f>
-        <v>41499.940540951335</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" t="s">
-        <v>79</v>
-      </c>
-      <c r="B15" s="2">
-        <v>753.31768076999992</v>
-      </c>
-      <c r="C15" s="2">
-        <v>4.437E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="D16" s="42"/>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18" t="s">
-        <v>169</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="C18" s="4">
-        <v>7800</v>
-      </c>
-      <c r="D18" s="2">
-        <v>2500</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="F18" s="36" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" t="s">
-        <v>165</v>
-      </c>
-      <c r="B19" s="2">
-        <v>20438</v>
-      </c>
-      <c r="C19" s="5">
-        <v>222100</v>
-      </c>
-      <c r="D19" s="2">
-        <v>40701</v>
-      </c>
-      <c r="E19" s="2">
-        <v>1460</v>
-      </c>
-      <c r="F19">
-        <f>SUM(B19:E19)</f>
-        <v>284699</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20" t="s">
-        <v>113</v>
-      </c>
-      <c r="B20" s="2">
-        <v>19920</v>
-      </c>
-      <c r="C20" s="5">
-        <v>171800</v>
-      </c>
-      <c r="D20" s="2">
-        <v>41500</v>
-      </c>
-      <c r="E20" s="2">
-        <v>2167</v>
-      </c>
-      <c r="F20">
-        <f>SUM(B20:E20)</f>
-        <v>235387</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C6:Q31"/>
-  <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
-  <cols>
-    <col min="3" max="3" width="20.33203125" customWidth="1"/>
-    <col min="6" max="6" width="31.77734375" customWidth="1"/>
-    <col min="7" max="7" width="35.77734375" customWidth="1"/>
-    <col min="8" max="8" width="12" customWidth="1"/>
-    <col min="9" max="9" width="13.109375" customWidth="1"/>
-    <col min="10" max="10" width="15.21875" customWidth="1"/>
-    <col min="11" max="11" width="12.33203125" customWidth="1"/>
-    <col min="12" max="12" width="13.21875" customWidth="1"/>
-    <col min="13" max="13" width="16.33203125" customWidth="1"/>
-    <col min="14" max="14" width="10.6640625" customWidth="1"/>
-    <col min="17" max="17" width="19.5546875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="6" spans="6:17">
-      <c r="F6" s="5"/>
-      <c r="G6" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="I6" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="L6" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="M6" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="N6" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="O6" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="7" spans="6:17">
-      <c r="F7" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="G7" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="H7" s="2">
-        <v>1442.18</v>
-      </c>
-      <c r="I7" s="2">
-        <v>1473.01</v>
-      </c>
-      <c r="J7" s="2">
-        <v>1439.56</v>
-      </c>
-      <c r="K7" s="4">
-        <v>1401.84</v>
-      </c>
-      <c r="L7" s="4">
-        <v>1366.89</v>
-      </c>
-      <c r="M7" s="5"/>
-      <c r="N7" s="2">
-        <f>(45/100)^3</f>
-        <v>9.1125000000000012E-2</v>
-      </c>
-      <c r="O7" s="2">
-        <f>I7/N7</f>
-        <v>16164.718792866939</v>
-      </c>
-      <c r="P7">
-        <f>H7/N7</f>
-        <v>15826.392318244169</v>
-      </c>
-      <c r="Q7" s="1">
-        <f>L7/N7</f>
-        <v>15000.164609053498</v>
-      </c>
-    </row>
-    <row r="8" spans="6:17">
-      <c r="F8" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="G8" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="H8" s="2">
-        <v>650.79</v>
-      </c>
-      <c r="I8" s="2">
-        <v>691.87</v>
-      </c>
-      <c r="J8" s="2">
-        <v>676.16</v>
-      </c>
-      <c r="K8" s="4">
-        <v>658.44</v>
-      </c>
-      <c r="L8" s="4">
-        <v>642.03</v>
-      </c>
-      <c r="M8" s="5"/>
-      <c r="N8" s="2">
-        <f>(35/100)^3</f>
-        <v>4.287499999999999E-2</v>
-      </c>
-      <c r="O8" s="2">
-        <f t="shared" ref="O8:O10" si="0">I8/N8</f>
-        <v>16136.909620991257</v>
-      </c>
-      <c r="Q8" s="1">
-        <f>L8/N8</f>
-        <v>14974.460641399421</v>
-      </c>
-    </row>
-    <row r="9" spans="6:17">
-      <c r="F9" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="G9" s="21" t="s">
-        <v>81</v>
-      </c>
-      <c r="H9" s="2">
-        <v>499.32</v>
-      </c>
-      <c r="I9" s="2">
-        <v>515.97</v>
-      </c>
-      <c r="J9" s="2">
-        <v>504.25</v>
-      </c>
-      <c r="K9" s="4">
-        <v>491.04</v>
-      </c>
-      <c r="L9" s="4">
-        <v>478.4</v>
-      </c>
-      <c r="M9" s="5"/>
-      <c r="N9" s="2"/>
-      <c r="O9" s="2" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="10" spans="6:17">
-      <c r="F10" s="5"/>
-      <c r="G10" s="21" t="s">
-        <v>126</v>
-      </c>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5"/>
-      <c r="L10" s="5"/>
-      <c r="M10" s="2">
-        <v>759.98</v>
-      </c>
-      <c r="N10" s="2">
-        <f>((50/100)^2)*(38/100)</f>
-        <v>9.5000000000000001E-2</v>
-      </c>
-      <c r="O10" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q10" s="1">
-        <f>M10/N10</f>
-        <v>7999.7894736842109</v>
-      </c>
-    </row>
-    <row r="12" spans="6:17">
-      <c r="K12">
-        <f>I7/N7</f>
-        <v>16164.718792866939</v>
-      </c>
-    </row>
-    <row r="14" spans="6:17" s="34" customFormat="1">
-      <c r="G14" s="34" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="15" spans="6:17" s="34" customFormat="1"/>
-    <row r="16" spans="6:17" s="34" customFormat="1"/>
-    <row r="17" spans="3:6" s="34" customFormat="1"/>
-    <row r="18" spans="3:6" s="34" customFormat="1"/>
-    <row r="19" spans="3:6" s="34" customFormat="1"/>
-    <row r="20" spans="3:6" s="34" customFormat="1"/>
-    <row r="21" spans="3:6" s="34" customFormat="1"/>
-    <row r="22" spans="3:6" s="34" customFormat="1"/>
-    <row r="23" spans="3:6" s="34" customFormat="1"/>
-    <row r="24" spans="3:6" s="34" customFormat="1"/>
-    <row r="25" spans="3:6" s="34" customFormat="1">
-      <c r="C25" s="35"/>
-    </row>
-    <row r="26" spans="3:6" s="34" customFormat="1">
-      <c r="C26" s="35"/>
-      <c r="D26" s="35"/>
-      <c r="E26" s="35"/>
-      <c r="F26" s="35"/>
-    </row>
-    <row r="27" spans="3:6" s="34" customFormat="1"/>
-    <row r="28" spans="3:6" s="34" customFormat="1"/>
-    <row r="29" spans="3:6" s="34" customFormat="1"/>
-    <row r="30" spans="3:6" s="34" customFormat="1"/>
-    <row r="31" spans="3:6" s="34" customFormat="1"/>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>